--- a/data/Template/DistrictTemplate.xlsx
+++ b/data/Template/DistrictTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="25515" yWindow="-45" windowWidth="24255" windowHeight="11535"/>
@@ -14,586 +14,580 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="191">
-  <si>
-    <t>T</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+  <si>
+    <t>ObjectID</t>
+  </si>
+  <si>
+    <t>MaxCostShare</t>
+  </si>
+  <si>
+    <t>DiscountRateExclInflation</t>
+  </si>
+  <si>
+    <t>ElectricityPriceIncrease</t>
+  </si>
+  <si>
+    <t>DistrictHeatingPriceIncrease</t>
+  </si>
+  <si>
+    <t>EnergyPriceIncreaseDistrictHeatingNaturalGas</t>
+  </si>
+  <si>
+    <t>EnergyPriceIncreaseOtherFuel</t>
+  </si>
+  <si>
+    <t>FeedInTariffPriceIncrease</t>
+  </si>
+  <si>
+    <t>LCACalcPeriod</t>
+  </si>
+  <si>
+    <t>RentIncrease</t>
+  </si>
+  <si>
+    <t>FeedInTariffPrice</t>
+  </si>
+  <si>
+    <t>ElectricityPrice</t>
+  </si>
+  <si>
+    <t>NaturalGasPrice</t>
+  </si>
+  <si>
+    <t>DistrictHeatingPrice</t>
+  </si>
+  <si>
+    <t>OtherFuelPrice</t>
+  </si>
+  <si>
+    <t>GreenTotArea</t>
+  </si>
+  <si>
+    <t>GreenSealedSurfaceArea</t>
+  </si>
+  <si>
+    <t>GreenPartSealedSurfaceArea</t>
+  </si>
+  <si>
+    <t>GreenSemiOpenSurfaceArea</t>
+  </si>
+  <si>
+    <t>GreenVegetationLT80Area</t>
+  </si>
+  <si>
+    <t>GreenVegetationGT80Area</t>
+  </si>
+  <si>
+    <t>GreenRainWaterInfArea</t>
+  </si>
+  <si>
+    <t>GreenVerticalArea</t>
+  </si>
+  <si>
+    <t>GreenRoofTopArea</t>
+  </si>
+  <si>
+    <t>TotalGas</t>
+  </si>
+  <si>
+    <t>TotalElec</t>
+  </si>
+  <si>
+    <t>Produced</t>
+  </si>
+  <si>
+    <t>PrimaryEnergyConsumptions</t>
+  </si>
+  <si>
+    <t>FinalEnergyConsumptions</t>
+  </si>
+  <si>
+    <t>HeatingGas</t>
+  </si>
+  <si>
+    <t>HeatingElec</t>
+  </si>
+  <si>
+    <t>CoolingElec</t>
+  </si>
+  <si>
+    <t>DHWElec</t>
+  </si>
+  <si>
+    <t>OtherElec</t>
+  </si>
+  <si>
+    <t>ProducedElec</t>
+  </si>
+  <si>
+    <t>RatioEnR</t>
+  </si>
+  <si>
+    <t>GreenVergetationToSoilArea</t>
+  </si>
+  <si>
+    <t>M0001ModalSplitOriginPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0002ModalSplitOriginPublicTransport</t>
+  </si>
+  <si>
+    <t>M0003ModalSplitOriginSlowModes</t>
+  </si>
+  <si>
+    <t>M0004ModalSplitDestinationPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0005ModalSplitDestinationPublicTransport</t>
+  </si>
+  <si>
+    <t>M0006ModalSplitDestinationSlowModes</t>
+  </si>
+  <si>
+    <t>M0007TotalFloorAreaHousing</t>
+  </si>
+  <si>
+    <t>M0008TotalFloorAreaOffices</t>
+  </si>
+  <si>
+    <t>M0009TotalFloorAreaRetail</t>
+  </si>
+  <si>
+    <t>M0010TotalFloorAreaIndustrial</t>
+  </si>
+  <si>
+    <t>M0011TotalFloorAreaOther</t>
+  </si>
+  <si>
+    <t>M0012TotalFloorAreaParkingArea</t>
+  </si>
+  <si>
+    <t>M0013OccupancyHousing</t>
+  </si>
+  <si>
+    <t>M0014OccupancyOffices</t>
+  </si>
+  <si>
+    <t>M0015OccupancyRetail</t>
+  </si>
+  <si>
+    <t>M0016OccupancyIndustrial</t>
+  </si>
+  <si>
+    <t>M0017OccupancyOther</t>
+  </si>
+  <si>
+    <t>M0018OccupancyParkingArea</t>
+  </si>
+  <si>
+    <t>M01CombineTramAndBusInfrastructure</t>
+  </si>
+  <si>
+    <t>M0101ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0102ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0103ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0104ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M02LargerTramAndBusVehiclesUpToMax20PerCentIncrease</t>
+  </si>
+  <si>
+    <t>M0201ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0202ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0203ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0204ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M0301ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0302ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0303ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0304ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M04OptimisationOfBusRoute</t>
+  </si>
+  <si>
+    <t>M0401ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0402ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0403ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0404ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M05ModificationOfTramAndBusRoutesToConnectToPAndR</t>
+  </si>
+  <si>
+    <t>M0501ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0502ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0503ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0504ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M06ParkingZonePolicy </t>
+  </si>
+  <si>
+    <t>M0601PercentageOfCarsParkedOutsiteParkingAreas</t>
+  </si>
+  <si>
+    <t>M0602CarOccupancy</t>
+  </si>
+  <si>
+    <t>M0603PercentageOfPeopleWhoWillShift</t>
+  </si>
+  <si>
+    <t>M0604ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0605ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M07PAndR </t>
+  </si>
+  <si>
+    <t>M0701ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0702ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0703ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0704ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M0705ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0706ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0707ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0708ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M08FlexWorking</t>
+  </si>
+  <si>
+    <t>M0801DaysPerWeekThatEmployeesWorkFromHome</t>
+  </si>
+  <si>
+    <t>M0804ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M09PromotionOfPublicTransportEmployersPayingForPublicTransport</t>
+  </si>
+  <si>
+    <t>M0901ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M0902ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M0903ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M0904ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>M10MixedUsePlanning</t>
+  </si>
+  <si>
+    <t>M1001ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M1002ImpactOnPrivateTransport</t>
+  </si>
+  <si>
+    <t>M1003ImpactOnPublicTransport</t>
+  </si>
+  <si>
+    <t>M1004ImpactOnSlowModes</t>
+  </si>
+  <si>
+    <t>HubProductionType</t>
+  </si>
+  <si>
+    <t>HubNominalPower</t>
+  </si>
+  <si>
+    <t>HubThermalProduction</t>
+  </si>
+  <si>
+    <t>HubElectricFossilProduction</t>
+  </si>
+  <si>
+    <t>HubRENProduction</t>
+  </si>
+  <si>
+    <t>HubFossilConsumption</t>
+  </si>
+  <si>
+    <t>HubElectricityConsumption</t>
+  </si>
+  <si>
+    <t>HubAuxiliaryConsumption</t>
+  </si>
+  <si>
+    <t>HubEfficiency</t>
+  </si>
+  <si>
+    <t>GlobalHeatingGas</t>
+  </si>
+  <si>
+    <t>GlobalHeatingElec</t>
+  </si>
+  <si>
+    <t>GlobalCoolingElec</t>
+  </si>
+  <si>
+    <t>GlobalDhwElec</t>
+  </si>
+  <si>
+    <t>GlobalOtherElec</t>
+  </si>
+  <si>
+    <t>GlobalProdElec</t>
+  </si>
+  <si>
+    <t>GlobalTotalConsoGas</t>
+  </si>
+  <si>
+    <t>GlobalTotalConsoElec</t>
+  </si>
+  <si>
+    <t>GlobalTotalProd</t>
+  </si>
+  <si>
+    <t>GlobalPrimaryEnergyConsumptions</t>
+  </si>
+  <si>
+    <t>GlobalFinalEnergyConsumptions</t>
+  </si>
+  <si>
+    <t>GlobalTotalEnergyPerSqrM</t>
+  </si>
+  <si>
+    <t>GloabalRatioENR</t>
+  </si>
+  <si>
+    <t>StGreenUnsupportedGroundGreenery</t>
+  </si>
+  <si>
+    <t>StGreenPlantBedGt800</t>
+  </si>
+  <si>
+    <t>StGreenPlantBedBetween600And800</t>
+  </si>
+  <si>
+    <t>StGreenPlantBedBetween200And600</t>
+  </si>
+  <si>
+    <t>StGreenGreenRoofGt300</t>
+  </si>
+  <si>
+    <t>StGreenGreenRoofBetween50And300</t>
+  </si>
+  <si>
+    <t>StGreenGreeneryOnWalls</t>
+  </si>
+  <si>
+    <t>StGreenBalconyBoxes</t>
+  </si>
+  <si>
+    <t>StGreenWaterSurfacePermanent</t>
+  </si>
+  <si>
+    <t>StGreenOpenHardSurfacesThatAllowWaterToGetThrough</t>
+  </si>
+  <si>
+    <t>StGreenGravelAndSand</t>
+  </si>
+  <si>
+    <t>StGreenConcreteSlabsWithJoints</t>
+  </si>
+  <si>
+    <t>StGreenDiversityInTheFieldLayer</t>
+  </si>
+  <si>
+    <t>StGreenNaturalSpeciesSelection</t>
+  </si>
+  <si>
+    <t>StGreenDiversityOnThinSedumRoofs</t>
+  </si>
+  <si>
+    <t>StGreenIntegratedBalconyBoxesWithClimbingPlants</t>
+  </si>
+  <si>
+    <t>StGreenButterflyRestaurants</t>
+  </si>
+  <si>
+    <t>StGreenGeneralBushes</t>
+  </si>
+  <si>
+    <t>StGreenBerryBushes</t>
+  </si>
+  <si>
+    <t>StGreenLargeTrees</t>
+  </si>
+  <si>
+    <t>StGreenMediumLargeTrees</t>
+  </si>
+  <si>
+    <t>StGreenSmallTrees</t>
+  </si>
+  <si>
+    <t>StGreenOaks</t>
+  </si>
+  <si>
+    <t>StGreenFruitTrees</t>
+  </si>
+  <si>
+    <t>StGreenFaunaDepots</t>
+  </si>
+  <si>
+    <t>StGreenBeetleFeeders</t>
+  </si>
+  <si>
+    <t>StGreenBirdFeeders</t>
+  </si>
+  <si>
+    <t>StGreenBiologicallyAccessiblePermanentWater</t>
+  </si>
+  <si>
+    <t>StGreenDryAreasWithPlantsThatTemporarilyFillWithRainWater</t>
+  </si>
+  <si>
+    <t>StGreenDelayOfRainwaterInPonds</t>
+  </si>
+  <si>
+    <t>StGreenDelayOfRainwaterInUndergroundPercolationSystems</t>
+  </si>
+  <si>
+    <t>StGreenRunoffFromImpermeableSurfacesToSurfacesWithPlants</t>
+  </si>
+  <si>
+    <t>StGreenGrassAreaGames</t>
+  </si>
+  <si>
+    <t>StGreenGardeningAreasInYards</t>
+  </si>
+  <si>
+    <t>StGreenBalconiesAndTerracesPreparedForGrowing</t>
+  </si>
+  <si>
+    <t>StGreenSharedRoofTerraces</t>
+  </si>
+  <si>
+    <t>StGreenVisibleGreenRoofs</t>
+  </si>
+  <si>
+    <t>StGreenFloralArrangements</t>
+  </si>
+  <si>
+    <t>StGreenExperientialValuesOfBushes</t>
+  </si>
+  <si>
+    <t>StGreenBerryBushesWithEdibleFruits</t>
+  </si>
+  <si>
+    <t>StGreenTreesExperientialValue</t>
+  </si>
+  <si>
+    <t>StGreenFruitTreesAndBloomingTrees</t>
+  </si>
+  <si>
+    <t>StGreenGreenSurrounded</t>
+  </si>
+  <si>
+    <t>StGreenBirdFeedersExperientialValue</t>
+  </si>
+  <si>
+    <t>StGreenWaterSurfaces</t>
+  </si>
+  <si>
+    <t>StGreenBiologicallyAccessibleWater</t>
+  </si>
+  <si>
+    <t>StGreenFountainsCirculationsSystems</t>
+  </si>
+  <si>
+    <t>StGreenTreesLeafyShading</t>
+  </si>
+  <si>
+    <t>StGreenShadeFromLeafCover</t>
+  </si>
+  <si>
+    <t>StGreenEveningOutOfTemp</t>
+  </si>
+  <si>
+    <t>StGreenWaterCollectionDuringDryPeriods</t>
+  </si>
+  <si>
+    <t>StGreenCollectedRainwaterForWatering</t>
+  </si>
+  <si>
+    <t>StGreenFountainsCoolingEffect</t>
+  </si>
+  <si>
+    <t>StGreenTotalLandArea</t>
+  </si>
+  <si>
+    <t>StGreenImpermeableSurfaces</t>
+  </si>
+  <si>
+    <t>M0803ImpactWithoutMeasure</t>
+  </si>
+  <si>
+    <t>M03HiFreqTramBusServ20PerCentIncrStopServ</t>
+  </si>
+  <si>
+    <t>M0802PercentFloorAreaOffBuildFlexwork</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
     <t>District</t>
-  </si>
-  <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
-    <t>MaxCostShare</t>
-  </si>
-  <si>
-    <t>DiscountRateExclInflation</t>
-  </si>
-  <si>
-    <t>ElectricityPriceIncrease</t>
-  </si>
-  <si>
-    <t>DistrictHeatingPriceIncrease</t>
-  </si>
-  <si>
-    <t>EnergyPriceIncreaseDistrictHeatingNaturalGas</t>
-  </si>
-  <si>
-    <t>EnergyPriceIncreaseOtherFuel</t>
-  </si>
-  <si>
-    <t>FeedInTariffPriceIncrease</t>
-  </si>
-  <si>
-    <t>LCACalcPeriod</t>
-  </si>
-  <si>
-    <t>RentIncrease</t>
-  </si>
-  <si>
-    <t>FeedInTariffPrice</t>
-  </si>
-  <si>
-    <t>ElectricityPrice</t>
-  </si>
-  <si>
-    <t>NaturalGasPrice</t>
-  </si>
-  <si>
-    <t>DistrictHeatingPrice</t>
-  </si>
-  <si>
-    <t>OtherFuelPrice</t>
-  </si>
-  <si>
-    <t>GreenTotArea</t>
-  </si>
-  <si>
-    <t>GreenSealedSurfaceArea</t>
-  </si>
-  <si>
-    <t>GreenPartSealedSurfaceArea</t>
-  </si>
-  <si>
-    <t>GreenSemiOpenSurfaceArea</t>
-  </si>
-  <si>
-    <t>GreenVegetationLT80Area</t>
-  </si>
-  <si>
-    <t>GreenVegetationGT80Area</t>
-  </si>
-  <si>
-    <t>GreenRainWaterInfArea</t>
-  </si>
-  <si>
-    <t>GreenVerticalArea</t>
-  </si>
-  <si>
-    <t>GreenRoofTopArea</t>
-  </si>
-  <si>
-    <t>TotalGas</t>
-  </si>
-  <si>
-    <t>TotalElec</t>
-  </si>
-  <si>
-    <t>Produced</t>
-  </si>
-  <si>
-    <t>PrimaryEnergyConsumptions</t>
-  </si>
-  <si>
-    <t>FinalEnergyConsumptions</t>
-  </si>
-  <si>
-    <t>HeatingGas</t>
-  </si>
-  <si>
-    <t>HeatingElec</t>
-  </si>
-  <si>
-    <t>CoolingElec</t>
-  </si>
-  <si>
-    <t>DHWElec</t>
-  </si>
-  <si>
-    <t>OtherElec</t>
-  </si>
-  <si>
-    <t>ProducedElec</t>
-  </si>
-  <si>
-    <t>RatioEnR</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>GreenVergetationToSoilArea</t>
-  </si>
-  <si>
-    <t>M0001ModalSplitOriginPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0002ModalSplitOriginPublicTransport</t>
-  </si>
-  <si>
-    <t>M0003ModalSplitOriginSlowModes</t>
-  </si>
-  <si>
-    <t>M0004ModalSplitDestinationPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0005ModalSplitDestinationPublicTransport</t>
-  </si>
-  <si>
-    <t>M0006ModalSplitDestinationSlowModes</t>
-  </si>
-  <si>
-    <t>M0007TotalFloorAreaHousing</t>
-  </si>
-  <si>
-    <t>M0008TotalFloorAreaOffices</t>
-  </si>
-  <si>
-    <t>M0009TotalFloorAreaRetail</t>
-  </si>
-  <si>
-    <t>M0010TotalFloorAreaIndustrial</t>
-  </si>
-  <si>
-    <t>M0011TotalFloorAreaOther</t>
-  </si>
-  <si>
-    <t>M0012TotalFloorAreaParkingArea</t>
-  </si>
-  <si>
-    <t>M0013OccupancyHousing</t>
-  </si>
-  <si>
-    <t>M0014OccupancyOffices</t>
-  </si>
-  <si>
-    <t>M0015OccupancyRetail</t>
-  </si>
-  <si>
-    <t>M0016OccupancyIndustrial</t>
-  </si>
-  <si>
-    <t>M0017OccupancyOther</t>
-  </si>
-  <si>
-    <t>M0018OccupancyParkingArea</t>
-  </si>
-  <si>
-    <t>M01CombineTramAndBusInfrastructure</t>
-  </si>
-  <si>
-    <t>M0101ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0102ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0103ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0104ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M02LargerTramAndBusVehiclesUpToMax20PerCentIncrease</t>
-  </si>
-  <si>
-    <t>M0201ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0202ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0203ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0204ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M0301ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0302ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0303ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0304ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M04OptimisationOfBusRoute</t>
-  </si>
-  <si>
-    <t>M0401ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0402ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0403ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0404ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M05ModificationOfTramAndBusRoutesToConnectToPAndR</t>
-  </si>
-  <si>
-    <t>M0501ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0502ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0503ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0504ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M06ParkingZonePolicy </t>
-  </si>
-  <si>
-    <t>M0601PercentageOfCarsParkedOutsiteParkingAreas</t>
-  </si>
-  <si>
-    <t>M0602CarOccupancy</t>
-  </si>
-  <si>
-    <t>M0603PercentageOfPeopleWhoWillShift</t>
-  </si>
-  <si>
-    <t>M0604ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0605ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M07PAndR </t>
-  </si>
-  <si>
-    <t>M0701ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0702ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0703ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0704ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M0705ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0706ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0707ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0708ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M08FlexWorking</t>
-  </si>
-  <si>
-    <t>M0801DaysPerWeekThatEmployeesWorkFromHome</t>
-  </si>
-  <si>
-    <t>M0804ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M09PromotionOfPublicTransportEmployersPayingForPublicTransport</t>
-  </si>
-  <si>
-    <t>M0901ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M0902ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M0903ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M0904ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>M10MixedUsePlanning</t>
-  </si>
-  <si>
-    <t>M1001ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M1002ImpactOnPrivateTransport</t>
-  </si>
-  <si>
-    <t>M1003ImpactOnPublicTransport</t>
-  </si>
-  <si>
-    <t>M1004ImpactOnSlowModes</t>
-  </si>
-  <si>
-    <t>HubProductionType</t>
-  </si>
-  <si>
-    <t>HubNominalPower</t>
-  </si>
-  <si>
-    <t>HubThermalProduction</t>
-  </si>
-  <si>
-    <t>HubElectricFossilProduction</t>
-  </si>
-  <si>
-    <t>HubRENProduction</t>
-  </si>
-  <si>
-    <t>HubFossilConsumption</t>
-  </si>
-  <si>
-    <t>HubElectricityConsumption</t>
-  </si>
-  <si>
-    <t>HubAuxiliaryConsumption</t>
-  </si>
-  <si>
-    <t>HubEfficiency</t>
-  </si>
-  <si>
-    <t>GlobalHeatingGas</t>
-  </si>
-  <si>
-    <t>GlobalHeatingElec</t>
-  </si>
-  <si>
-    <t>GlobalCoolingElec</t>
-  </si>
-  <si>
-    <t>GlobalDhwElec</t>
-  </si>
-  <si>
-    <t>GlobalOtherElec</t>
-  </si>
-  <si>
-    <t>GlobalProdElec</t>
-  </si>
-  <si>
-    <t>GlobalTotalConsoGas</t>
-  </si>
-  <si>
-    <t>GlobalTotalConsoElec</t>
-  </si>
-  <si>
-    <t>GlobalTotalProd</t>
-  </si>
-  <si>
-    <t>GlobalPrimaryEnergyConsumptions</t>
-  </si>
-  <si>
-    <t>GlobalFinalEnergyConsumptions</t>
-  </si>
-  <si>
-    <t>GlobalTotalEnergyPerSqrM</t>
-  </si>
-  <si>
-    <t>GloabalRatioENR</t>
-  </si>
-  <si>
-    <t>StGreenUnsupportedGroundGreenery</t>
-  </si>
-  <si>
-    <t>StGreenPlantBedGt800</t>
-  </si>
-  <si>
-    <t>StGreenPlantBedBetween600And800</t>
-  </si>
-  <si>
-    <t>StGreenPlantBedBetween200And600</t>
-  </si>
-  <si>
-    <t>StGreenGreenRoofGt300</t>
-  </si>
-  <si>
-    <t>StGreenGreenRoofBetween50And300</t>
-  </si>
-  <si>
-    <t>StGreenGreeneryOnWalls</t>
-  </si>
-  <si>
-    <t>StGreenBalconyBoxes</t>
-  </si>
-  <si>
-    <t>StGreenWaterSurfacePermanent</t>
-  </si>
-  <si>
-    <t>StGreenOpenHardSurfacesThatAllowWaterToGetThrough</t>
-  </si>
-  <si>
-    <t>StGreenGravelAndSand</t>
-  </si>
-  <si>
-    <t>StGreenConcreteSlabsWithJoints</t>
-  </si>
-  <si>
-    <t>StGreenDiversityInTheFieldLayer</t>
-  </si>
-  <si>
-    <t>StGreenNaturalSpeciesSelection</t>
-  </si>
-  <si>
-    <t>StGreenDiversityOnThinSedumRoofs</t>
-  </si>
-  <si>
-    <t>StGreenIntegratedBalconyBoxesWithClimbingPlants</t>
-  </si>
-  <si>
-    <t>StGreenButterflyRestaurants</t>
-  </si>
-  <si>
-    <t>StGreenGeneralBushes</t>
-  </si>
-  <si>
-    <t>StGreenBerryBushes</t>
-  </si>
-  <si>
-    <t>StGreenLargeTrees</t>
-  </si>
-  <si>
-    <t>StGreenMediumLargeTrees</t>
-  </si>
-  <si>
-    <t>StGreenSmallTrees</t>
-  </si>
-  <si>
-    <t>StGreenOaks</t>
-  </si>
-  <si>
-    <t>StGreenFruitTrees</t>
-  </si>
-  <si>
-    <t>StGreenFaunaDepots</t>
-  </si>
-  <si>
-    <t>StGreenBeetleFeeders</t>
-  </si>
-  <si>
-    <t>StGreenBirdFeeders</t>
-  </si>
-  <si>
-    <t>StGreenBiologicallyAccessiblePermanentWater</t>
-  </si>
-  <si>
-    <t>StGreenDryAreasWithPlantsThatTemporarilyFillWithRainWater</t>
-  </si>
-  <si>
-    <t>StGreenDelayOfRainwaterInPonds</t>
-  </si>
-  <si>
-    <t>StGreenDelayOfRainwaterInUndergroundPercolationSystems</t>
-  </si>
-  <si>
-    <t>StGreenRunoffFromImpermeableSurfacesToSurfacesWithPlants</t>
-  </si>
-  <si>
-    <t>StGreenGrassAreaGames</t>
-  </si>
-  <si>
-    <t>StGreenGardeningAreasInYards</t>
-  </si>
-  <si>
-    <t>StGreenBalconiesAndTerracesPreparedForGrowing</t>
-  </si>
-  <si>
-    <t>StGreenSharedRoofTerraces</t>
-  </si>
-  <si>
-    <t>StGreenVisibleGreenRoofs</t>
-  </si>
-  <si>
-    <t>StGreenFloralArrangements</t>
-  </si>
-  <si>
-    <t>StGreenExperientialValuesOfBushes</t>
-  </si>
-  <si>
-    <t>StGreenBerryBushesWithEdibleFruits</t>
-  </si>
-  <si>
-    <t>StGreenTreesExperientialValue</t>
-  </si>
-  <si>
-    <t>StGreenFruitTreesAndBloomingTrees</t>
-  </si>
-  <si>
-    <t>StGreenGreenSurrounded</t>
-  </si>
-  <si>
-    <t>StGreenBirdFeedersExperientialValue</t>
-  </si>
-  <si>
-    <t>StGreenWaterSurfaces</t>
-  </si>
-  <si>
-    <t>StGreenBiologicallyAccessibleWater</t>
-  </si>
-  <si>
-    <t>StGreenFountainsCirculationsSystems</t>
-  </si>
-  <si>
-    <t>StGreenTreesLeafyShading</t>
-  </si>
-  <si>
-    <t>StGreenShadeFromLeafCover</t>
-  </si>
-  <si>
-    <t>StGreenEveningOutOfTemp</t>
-  </si>
-  <si>
-    <t>StGreenWaterCollectionDuringDryPeriods</t>
-  </si>
-  <si>
-    <t>StGreenCollectedRainwaterForWatering</t>
-  </si>
-  <si>
-    <t>StGreenFountainsCoolingEffect</t>
-  </si>
-  <si>
-    <t>StGreenTotalLandArea</t>
-  </si>
-  <si>
-    <t>StGreenImpermeableSurfaces</t>
-  </si>
-  <si>
-    <t>M0803ImpactWithoutMeasure</t>
-  </si>
-  <si>
-    <t>M03HiFreqTramBusServ20PerCentIncrStopServ</t>
-  </si>
-  <si>
-    <t>M0802PercentFloorAreaOffBuildFlexwork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,14 +613,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -667,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -705,47 +691,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -753,7 +698,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -762,15 +707,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
@@ -1083,11 +1020,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GE17"/>
+  <dimension ref="A1:GE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
-      <selection activeCell="EW3" sqref="EW3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1096,1138 +1031,764 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:187" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CF2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CU2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="CW2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="DI2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="DK2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="DO2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="DP2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="DR2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="DS2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="DU2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="DV2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="DX2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="EA2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="EB2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="EC2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="ED2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="EE2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="EF2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="EG2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="EI2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="EJ2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="EK2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="EL2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="EM2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="EN2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="EO2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="EP2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="EQ2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="ES2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="EU2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EV2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="EW2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="EX2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="FA2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="FB2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="FC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="FD2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="FE2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="FF2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="FG2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="FH2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="FI2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="FJ2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="FK2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="FL2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="FM2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FN2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="FO2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="FP2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="FQ2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="FR2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="FS2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FT2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="FU2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FV2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="FW2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="FY2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="GA2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="GB2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="GC2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="GD2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="GE2" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="2" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EN2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="ER2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="ET2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="EV2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EW2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EX2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EY2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EZ2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FE2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FG2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FH2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FI2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="FJ2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FL2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FM2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FN2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FO2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FP2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FQ2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FR2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FS2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FT2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FU2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FV2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FW2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FX2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FY2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="FZ2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="GA2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="GB2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="GC2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="GD2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="GE2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:187" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="AZ3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD3" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="BH3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI3" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BJ3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK3" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="BR3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS3" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="BT3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="BU3" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BW3" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BX3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="CB3" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="CC3" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="CE3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="CF3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="CH3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CI3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="CJ3" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CK3" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="CL3" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="CM3" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CN3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="CP3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="CQ3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="CR3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="CS3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="CT3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="CU3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="CV3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="CW3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="CX3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="CY3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="CZ3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="DA3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="DB3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="DC3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="DD3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="DE3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="DF3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="DG3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="DH3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="DI3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="DK3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="DL3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="DM3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="DN3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="DO3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="DP3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="DQ3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="DR3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="DS3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="DT3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="DU3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="DV3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="DW3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="DX3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="DY3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="DZ3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="EA3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="EB3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="EC3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="ED3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="EE3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="EF3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="EH3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="EI3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="EJ3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="EK3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="EL3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="EM3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="EN3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="EO3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="EP3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="EQ3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="ER3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="ES3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="ET3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="EU3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="EV3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="EW3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="EX3" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="EY3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="EZ3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="FA3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="FB3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="FC3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="FD3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="FE3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="FF3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="FG3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="FH3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="FI3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="FK3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="FL3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="FM3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="FN3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="FO3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="FP3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="FQ3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="FR3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="FS3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="FT3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="FU3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="FV3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="FW3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="FX3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="FY3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="FZ3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="GA3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="GB3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="GC3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="GD3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="GE3" s="3" t="s">
-        <v>132</v>
-      </c>
+    <row r="3" spans="1:187" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
     </row>
     <row r="4" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -4686,195 +4247,6 @@
       <c r="GD16" s="1"/>
       <c r="GE16" s="1"/>
     </row>
-    <row r="17" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
-      <c r="CX17" s="1"/>
-      <c r="CY17" s="1"/>
-      <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
-      <c r="DB17" s="1"/>
-      <c r="DC17" s="1"/>
-      <c r="DD17" s="1"/>
-      <c r="DE17" s="1"/>
-      <c r="DF17" s="1"/>
-      <c r="DG17" s="1"/>
-      <c r="DH17" s="1"/>
-      <c r="DI17" s="1"/>
-      <c r="DJ17" s="1"/>
-      <c r="DK17" s="1"/>
-      <c r="DL17" s="1"/>
-      <c r="DM17" s="1"/>
-      <c r="DN17" s="1"/>
-      <c r="DO17" s="1"/>
-      <c r="DP17" s="1"/>
-      <c r="DQ17" s="1"/>
-      <c r="DR17" s="1"/>
-      <c r="DS17" s="1"/>
-      <c r="DT17" s="1"/>
-      <c r="DU17" s="1"/>
-      <c r="DV17" s="1"/>
-      <c r="DW17" s="1"/>
-      <c r="DX17" s="1"/>
-      <c r="DY17" s="1"/>
-      <c r="DZ17" s="1"/>
-      <c r="EA17" s="1"/>
-      <c r="EB17" s="1"/>
-      <c r="EC17" s="1"/>
-      <c r="ED17" s="1"/>
-      <c r="EE17" s="1"/>
-      <c r="EF17" s="1"/>
-      <c r="EG17" s="1"/>
-      <c r="EH17" s="1"/>
-      <c r="EI17" s="1"/>
-      <c r="EJ17" s="1"/>
-      <c r="EK17" s="1"/>
-      <c r="EL17" s="1"/>
-      <c r="EM17" s="1"/>
-      <c r="EN17" s="1"/>
-      <c r="EO17" s="1"/>
-      <c r="EP17" s="1"/>
-      <c r="EQ17" s="1"/>
-      <c r="ER17" s="1"/>
-      <c r="ES17" s="1"/>
-      <c r="ET17" s="1"/>
-      <c r="EU17" s="1"/>
-      <c r="EV17" s="1"/>
-      <c r="EW17" s="1"/>
-      <c r="EX17" s="1"/>
-      <c r="EY17" s="1"/>
-      <c r="EZ17" s="1"/>
-      <c r="FA17" s="1"/>
-      <c r="FB17" s="1"/>
-      <c r="FC17" s="1"/>
-      <c r="FD17" s="1"/>
-      <c r="FE17" s="1"/>
-      <c r="FF17" s="1"/>
-      <c r="FG17" s="1"/>
-      <c r="FH17" s="1"/>
-      <c r="FI17" s="1"/>
-      <c r="FJ17" s="1"/>
-      <c r="FK17" s="1"/>
-      <c r="FL17" s="1"/>
-      <c r="FM17" s="1"/>
-      <c r="FN17" s="1"/>
-      <c r="FO17" s="1"/>
-      <c r="FP17" s="1"/>
-      <c r="FQ17" s="1"/>
-      <c r="FR17" s="1"/>
-      <c r="FS17" s="1"/>
-      <c r="FT17" s="1"/>
-      <c r="FU17" s="1"/>
-      <c r="FV17" s="1"/>
-      <c r="FW17" s="1"/>
-      <c r="FX17" s="1"/>
-      <c r="FY17" s="1"/>
-      <c r="FZ17" s="1"/>
-      <c r="GA17" s="1"/>
-      <c r="GB17" s="1"/>
-      <c r="GC17" s="1"/>
-      <c r="GD17" s="1"/>
-      <c r="GE17" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4882,6 +4254,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001071BE109140634D94E7C0D5D89D909C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57b5fde75c5c4fc79a2fe284800fad02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4995,22 +4382,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774A44AF-2DB5-47C4-96D9-B0B1311F20BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9A10934-FFA1-45D0-814D-A65788C41151}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D092064C-F2C8-46BD-824E-E7F3765DE15C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5024,27 +4419,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9A10934-FFA1-45D0-814D-A65788C41151}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774A44AF-2DB5-47C4-96D9-B0B1311F20BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>